--- a/61 Consultorías científico-tecnológicas.xlsx
+++ b/61 Consultorías científico-tecnológicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Consultorías científico-tecnológicas</t>
   </si>
@@ -22,10 +22,40 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
-    <t>Cadenas de Valor</t>
-  </si>
-  <si>
-    <t>19. Consultoría científica: ESTUDIO DE CONTROL ESTADÍSTICO DE LA CALIDAD IMPLEMENTANDO CARTAS DE CONTROL P EN EL PROCESO DE BENEFICIO DEL CAFÉ EN EL PERIODO DE COSECHA ENTRE ABRIL Y MAYO DE 2019, EN LA HACIENDA LOS NARANJOS, UNIDAD PRODUCTIVA SUPRACAFÉ COLOMBIA S.A.  Año de inicio: 2019, Mes de inicio: 4, Año de fin: 2019, Mes de fin: 5  Idioma: Español, Ciudad: POPAYÁN, Disponibilidad: Restringido, Duración: 2, Número del contrato: 039, Institución en la cual prestó el servicio: CORPORACION PARQUE TECNOLOGICO DE INNOVACION TECNICAFE</t>
+    <t>Agua y Saneamiento</t>
+  </si>
+  <si>
+    <t>INVEMAR - Calidad Ambiental Marina</t>
+  </si>
+  <si>
+    <t>Limnología y Recursos Hídricos</t>
+  </si>
+  <si>
+    <t>7. Consultoría científica: Formulacion del Plan de Manejo del acuifero de la cuenca del rio Risaralda, implementación de los planes de manejo de los acuiferos Santagueda Km 41- Irra y rio grande de la Magdalena y operación de la red de monitoreo de agua Subterranea de los acuiferos en jurisdicción de Caldas  Año de inicio: 2015, Mes de inicio: 8, Año de fin: 2016, Mes de fin: 7  Idioma: Español, Ciudad: MANIZALES, Disponibilidad: No restringido, Duración: 0, Número del contrato: 136-2015, Institución en la cual prestó el servicio: Corporación Autónoma Regional de Caldas 
+ 22. Consultoría científica: Caracterización de agua subterránea para once (11) pozos de monitoreo ubicados en el Departamento de Risaralda. 2019-I  Año de inicio: 2019, Mes de inicio: 2, Año de fin: 2019, Mes de fin: 5  Idioma: Español, Ciudad: LA VIRGINIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 024-19, Institución en la cual prestó el servicio: INGENIO RISARALDA S.A. 
+ 26. Consultoría científica: Caracterización de agua subterránea para once (11) pozos de monitoreo ubicados en el Departamento de Risaralda. 2019-II  Año de inicio: 2019, Mes de inicio: 9, Año de fin: 2019, Mes de fin: 11  Idioma: Español, Ciudad: PEREIRA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 103-19, Institución en la cual prestó el servicio: INGENIO RISARALDA S.A. 
+ 30. Consultoría científica: Caracterización de agua subterránea proveniente de 11 pozos de monitoreo ubicados en el Departamento de Risaralda. 2020  Año de inicio: 2020, Mes de inicio: 3, Año de fin: 2020, Mes de fin: 9  Idioma: Español, Ciudad: LA VIRGINIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 022-20, Institución en la cual prestó el servicio: INGENIO RISARALDA S.A. 
+ 34. Consultoría científica: Estudios de caracterización de aguas de pozos de monitoreo año 2016  Año de inicio: 2016, Mes de inicio: 2, Año de fin: 2016, Mes de fin: 5  Idioma: Español, Ciudad: LA VIRGINIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 018-16, Institución en la cual prestó el servicio: INGENIO RISARALDA S.A. 
+ 35. Consultoría científica: Estudio de caracterización de agua de pozos de monitoreo en el Ingenio Risaralda S.A, segundo semestre de 2016  Año de inicio: 2016, Mes de inicio: 2, Año de fin: 2016, Mes de fin: 9  Idioma: Español, Ciudad: LA VIRGINIA, Disponibilidad: Restringido, Duración: 7, Número del contrato: 106-16, Institución en la cual prestó el servicio: INGENIO RISARALDA S.A. 
+ 43. Consultoría científica: Estudio de caracterización de agua de pozos de monitoreo semestre I año 2018 Ingenio Risaralda S.A  Año de inicio: 2018, Mes de inicio: 3, Año de fin: 2018, Mes de fin: 6  Idioma: Español, Ciudad: LA VIRGINIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: Orden de compra # 3620172063, Institución en la cual prestó el servicio: INGENIO RISARALDA S.A. 
+ 45. Consultoría científica: Estudio de caracterización de agua de pozos de monitoreo semestre II año 2018 Ingenio Risaralda S.A.  Año de inicio: 2018, Mes de inicio: 8, Año de fin: 2018, Mes de fin: 12  Idioma: Español, Ciudad: LA VIRGINIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: Orden de compra # 3620178418, Institución en la cual prestó el servicio: INGENIO RISARALDA S.A. 
+ 51. Consultoría científica: Formulación del Plan de Manejo del acuífero de la cuenca del rio Risaralda, implementación de los planes de manejo de los acuíferos Santagueda Km 41- Irra y rio grande de la Magdalena y operación de la red de monitoreo de agua Subterránea de los acuíferos en jurisdicción de Caldas  Año de inicio: 2015, Mes de inicio: 8, Año de fin: 2016, Mes de fin: 9  Idioma: Español, Ciudad: , Disponibilidad: No restringido, Duración: 0, Número del contrato: Contrato 136-2015, Institución en la cual prestó el servicio: Corporación Autónoma Regional de Caldas</t>
+  </si>
+  <si>
+    <t>5. Consultoría científica: Monitoreo de calidad de aguas, sedimentos y aspectos biológicos en una zona industrial de Mamonal, bahía de Cartagena  Año de inicio: 2007, Mes de inicio: 7, Año de fin: 2008, Mes de fin: 7  Idioma: Español, Ciudad: SANTA MARTA, Disponibilidad: Restringido, Duración: 12, Número del contrato: CONTRATO DE CONSULTORÍA - 2007, Institución en la cual prestó el servicio: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR 
+ 6. Consultoría científica: MONITOREO AMBIENTAL DE LA CALIDAD DE AGUAS, SEDIMENTOS Y COMUNIDADES MARINAS EN LA ZONA DE INFLUENCIA DIRECTA DEL POZO EXPLORATORIO ARAZÁ I  Año de inicio: 2007, Mes de inicio: 6, Año de fin: 2008, Mes de fin: 7  Idioma: Español, Ciudad: SANTA MARTA, Disponibilidad: Restringido, Duración: 12, Número del contrato: , Institución en la cual prestó el servicio: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR 
+ 13. Consultoría científica: Monitoreo de calidad de aguas marinas, potables y residuales durante la perforación del Pozo Brama-01  Año de inicio: 2017, Mes de inicio: 4, Año de fin: 2018, Mes de fin: 2  Idioma: Español, Ciudad: SANTA MARTA, Disponibilidad: Restringido, Duración: 10, Número del contrato: Contrato PETROBRAS -INVEMAR No. 9019234, Institución en la cual prestó el servicio: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR 
+ 30. Consultoría científica: Monitoreo de Calidad de Aguas, Sedimentos, Fauna Asociada a Manglar y Bentos en el Área de Influencia del Dragado en el Puerto de Buenaventura  Año de inicio: 2008, Mes de inicio: 1, Año de fin: 0, Mes de fin: 0  Idioma: Español, Ciudad: SANTA MARTA, Disponibilidad: Restringido, Duración: 18, Número del contrato: , Institución en la cual prestó el servicio: Ondenemeingen Jande Nul NV 
+ 35. Consultoría científica: PROTOCOLO DE MONITOREO DE LAS AGUAS DE LASTRE DE LOS BUQUES QUE INGRESAN AL PUERTO DE SANTA MARTA  Año de inicio: 2012, Mes de inicio: 9, Año de fin: 2014, Mes de fin: 2  Idioma: Español, Ciudad: SANTA MARTA, Disponibilidad: Restringido, Duración: 17, Número del contrato: , Institución en la cual prestó el servicio: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR</t>
+  </si>
+  <si>
+    <t>3. Consultoría científica: Monitoreo y seguimiento hidrobiológico del trasvase del río Guarinó y Monitoreo limnológico e hidrobiológico embalse Amaní - río la Miel y afluentes principales en el sector aguas abajo de la presa de la central hidroeléctrica Miel I - 2013  Año de inicio: 2011, Mes de inicio: 1, Año de fin: 2013, Mes de fin: 1  Idioma: Español, Ciudad: MEDELLÍN, Disponibilidad: Restringido, Duración: 36, Número del contrato: 46-3643, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
+ 9. Consultoría científica: Monitoreo limnológico e hidrobiológico embalse Amaní - río la Miel y afluentes principales en el sector aguas abajo de la presa de la central hidroeléctrica Miel I - 2009 Año de inicio: 2008, Mes de inicio: 1, Año de fin: 2009, Mes de fin: 12  Idioma: Español, Ciudad: MEDELLÍN, Disponibilidad: Restringido, Duración: 24, Número del contrato: 46-2628, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
+ 22. Consultoría científica: Monitoreo Limnológico e hidrobiológico embalse Amaní-Río La Miel y afluentes principales en el sector aguas abajo de la presa de la Central Hidroeléctrica Miel I - PMA 2006  Año de inicio: 2006, Mes de inicio: 1, Año de fin: 2007, Mes de fin: 1  Idioma: Español, Ciudad: , Disponibilidad: Restringido, Duración: 12, Número del contrato: 1, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
+ 24. Consultoría científica: Programa de monitoreo limnológico embalses Punchiná y San Lorenzo, Centrales Hidroeléctricas San Carlos y Jaguas PMA 2007  Año de inicio: 2007, Mes de inicio: 2, Año de fin: 0, Mes de fin: 1  Idioma: Español, Ciudad: , Disponibilidad: Restringido, Duración: 11, Número del contrato: , Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
+ 32. Consultoría científica: Monitoreo Limnológico e hidrobiológico embalse Amaní-Río La Miel y afluentes principales en el sector aguas abajo de la presa de la Central Hidroeléctrica Miel I - 2012  Año de inicio: 2010, Mes de inicio: 1, Año de fin: 2012, Mes de fin: 1  Idioma: Español, Ciudad: RIONEGRO, Disponibilidad: Restringido, Duración: 24, Número del contrato: 46-3346, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
+ 46. Consultoría científica: Monitoreo de ictiofauna del río la miel y afluentes principales en el sector aguas abajo de la presa de la central hidroeléctrica miel I  Año de inicio: 2010, Mes de inicio: 1, Año de fin: 0, Mes de fin: 1  Idioma: Español, Ciudad: NORCASIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 46/3346, Institución en la cual prestó el servicio: UNIVERSIDAD CATOLICA DE ORIENTE 
+ 47. Consultoría científica: Monitoreo de ictiofauna del río la miel y afluentes principales en el sector aguas abajo de la presa de la central hidroeléctrica miel I-2008  Año de inicio: 2008, Mes de inicio: 1, Año de fin: 0, Mes de fin: 1  Idioma: Español, Ciudad: NORCASIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 46/2628, Institución en la cual prestó el servicio: UNIVERSIDAD CATOLICA DE ORIENTE</t>
   </si>
 </sst>
 </file>
@@ -383,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +432,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/61 Consultorías científico-tecnológicas.xlsx
+++ b/61 Consultorías científico-tecnológicas.xlsx
@@ -22,13 +22,26 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
+    <t>ECOLOGIA, INGENIERIA Y SOCIEDAD - EIS</t>
+  </si>
+  <si>
     <t>Agua y Saneamiento</t>
   </si>
   <si>
     <t>INVEMAR - Calidad Ambiental Marina</t>
   </si>
   <si>
-    <t>Limnología y Recursos Hídricos</t>
+    <t>35. Consultoría científica: Monitoreo 13 puntos criticos para el abastecimiento de agua potable, Barbas y Cestillal, mediante la realización de aforos mensuales.  Año de inicio: 2016, Mes de inicio: 9, Año de fin: 2017, Mes de fin: 5  Idioma: Español, Ciudad: PEREIRA, Disponibilidad: Restringido, Duración: 0, Número del contrato: CONVENIO No 336 2016, Institución en la cual prestó el servicio: Corporación Autónoma Regional De Risaralda - Carder 
+ 39. Consultoría científica: MONITOREO DE AGUAS SUBTERRANEAS  Año de inicio: 2016, Mes de inicio: 9, Año de fin: 2017, Mes de fin: 1  Idioma: Español, Ciudad: PEREIRA, Disponibilidad: Restringido, Duración: 0, Número del contrato: CONVENIO No 336 2016, Institución en la cual prestó el servicio: Corporación Autónoma Regional De Risaralda - Carder 
+ 41. Consultoría científica: CONSULTORÍA NO 1302/185 DEL 2016 "ELABORACION DE ESTUDIOS DE CALIDAD Y MONITOREO DEL AGUA"  Año de inicio: 2016, Mes de inicio: 9, Año de fin: 2016, Mes de fin: 12  Idioma: Español, Ciudad: PEREIRA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 1302/185 de 2016, Institución en la cual prestó el servicio: Aguas Y Aguas De Pereira 
+ 45. Consultoría científica: MONITOREO QUEBRADA AGUA AZUL CONVENIO ACUASEO S.A  Año de inicio: 2016, Mes de inicio: 8, Año de fin: 2017, Mes de fin: 8  Idioma: Español, Ciudad: PEREIRA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 165-2016, Institución en la cual prestó el servicio: Compañía de Servicios Públicos Domiciliarios S.A E.S.P 
+ 46. Consultoría científica: CONVENIO 138-2015 MONITOREO QUEBRADA AGUA AZUL CONVENIO ACUASEO  Año de inicio: 2015, Mes de inicio: 8, Año de fin: 2016, Mes de fin: 8  Idioma: Español, Ciudad: PEREIRA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 138-2015, Institución en la cual prestó el servicio: Compañía de Servicios Públicos Domiciliarios S.A E.S.P 
+ 58. Consultoría científica: CONVENIO 111 Realizar el seguimiento y monitoreo de las condiciones hidroclimatológicas en las quebradas Agua Azul, Caño NN y Quebrada La Estrella (zonas de captación superficial de agua cruda)  Año de inicio: 2018, Mes de inicio: 8, Año de fin: 2018, Mes de fin: 12  Idioma: Español, Ciudad: PEREIRA, Disponibilidad: Restringido, Duración: 0, Número del contrato: CONVENIO 111, Institución en la cual prestó el servicio: Compañía de Servicios Públicos Domiciliarios S.A E.S.P 
+ 68. Consultoría científica: EEP_37 de 2020_CAMPAÑA DE MONITOREO PARA EL SEGUIMIENTO DE LA CALIDAD DEL AGUA Y EL ECOSISTEMA, TRAMO DE LOCALIZACIÓN ANTES Y DESPUÉS DE BOCATOMA BELMONTE  Año de inicio: 2020, Mes de inicio: 3, Año de fin: 2020, Mes de fin: 12  Idioma: Español, Ciudad: PEREIRA, Disponibilidad: Restringido, Duración: 10, Número del contrato: No.37 de 2020, Institución en la cual prestó el servicio: EMPRESA DE ENERGIA DE PEREIRA S.A. ESP. 
+ 84. Consultoría científica: Monitoreo Limnológico y Calidad del agua del río Manso  Año de inicio: 2012, Mes de inicio: 1, Año de fin: 2018, Mes de fin: 12  Idioma: Español, Ciudad: NORCASIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 2014IQA, Institución en la cual prestó el servicio: INGENIEROS QUÍMICOS Y ASOCIADOS S.A.S. 
+ 85. Consultoría científica: Monitoreo Limnológico y Calidad del agua del río La Miel  Año de inicio: 2014, Mes de inicio: 1, Año de fin: 2018, Mes de fin: 12  Idioma: Español, Ciudad: NORCASIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 2014IQA, Institución en la cual prestó el servicio: INGENIEROS QUÍMICOS Y ASOCIADOS S.A.S. 
+ 86. Consultoría científica: Monitoreo Limnológico y Calidad del agua del río Guarinó  Año de inicio: 2015, Mes de inicio: 1, Año de fin: 2018, Mes de fin: 12  Idioma: Español, Ciudad: NORCASIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: , Institución en la cual prestó el servicio: INGENIEROS QUÍMICOS Y ASOCIADOS S.A.S. 
+ 91. Consultoría científica: Monitoreo Limnológico y Calidad del agua de las quebradas que atraviesas el trasvase del río Guarinó  Año de inicio: 2016, Mes de inicio: 1, Año de fin: 2018, Mes de fin: 12  Idioma: Español, Ciudad: NORCASIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 2014IQA, Institución en la cual prestó el servicio: INGENIEROS QUÍMICOS Y ASOCIADOS S.A.S.</t>
   </si>
   <si>
     <t>7. Consultoría científica: Formulacion del Plan de Manejo del acuifero de la cuenca del rio Risaralda, implementación de los planes de manejo de los acuiferos Santagueda Km 41- Irra y rio grande de la Magdalena y operación de la red de monitoreo de agua Subterranea de los acuiferos en jurisdicción de Caldas  Año de inicio: 2015, Mes de inicio: 8, Año de fin: 2016, Mes de fin: 7  Idioma: Español, Ciudad: MANIZALES, Disponibilidad: No restringido, Duración: 0, Número del contrato: 136-2015, Institución en la cual prestó el servicio: Corporación Autónoma Regional de Caldas 
@@ -47,15 +60,6 @@
  13. Consultoría científica: Monitoreo de calidad de aguas marinas, potables y residuales durante la perforación del Pozo Brama-01  Año de inicio: 2017, Mes de inicio: 4, Año de fin: 2018, Mes de fin: 2  Idioma: Español, Ciudad: SANTA MARTA, Disponibilidad: Restringido, Duración: 10, Número del contrato: Contrato PETROBRAS -INVEMAR No. 9019234, Institución en la cual prestó el servicio: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR 
  30. Consultoría científica: Monitoreo de Calidad de Aguas, Sedimentos, Fauna Asociada a Manglar y Bentos en el Área de Influencia del Dragado en el Puerto de Buenaventura  Año de inicio: 2008, Mes de inicio: 1, Año de fin: 0, Mes de fin: 0  Idioma: Español, Ciudad: SANTA MARTA, Disponibilidad: Restringido, Duración: 18, Número del contrato: , Institución en la cual prestó el servicio: Ondenemeingen Jande Nul NV 
  35. Consultoría científica: PROTOCOLO DE MONITOREO DE LAS AGUAS DE LASTRE DE LOS BUQUES QUE INGRESAN AL PUERTO DE SANTA MARTA  Año de inicio: 2012, Mes de inicio: 9, Año de fin: 2014, Mes de fin: 2  Idioma: Español, Ciudad: SANTA MARTA, Disponibilidad: Restringido, Duración: 17, Número del contrato: , Institución en la cual prestó el servicio: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR</t>
-  </si>
-  <si>
-    <t>3. Consultoría científica: Monitoreo y seguimiento hidrobiológico del trasvase del río Guarinó y Monitoreo limnológico e hidrobiológico embalse Amaní - río la Miel y afluentes principales en el sector aguas abajo de la presa de la central hidroeléctrica Miel I - 2013  Año de inicio: 2011, Mes de inicio: 1, Año de fin: 2013, Mes de fin: 1  Idioma: Español, Ciudad: MEDELLÍN, Disponibilidad: Restringido, Duración: 36, Número del contrato: 46-3643, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 9. Consultoría científica: Monitoreo limnológico e hidrobiológico embalse Amaní - río la Miel y afluentes principales en el sector aguas abajo de la presa de la central hidroeléctrica Miel I - 2009 Año de inicio: 2008, Mes de inicio: 1, Año de fin: 2009, Mes de fin: 12  Idioma: Español, Ciudad: MEDELLÍN, Disponibilidad: Restringido, Duración: 24, Número del contrato: 46-2628, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 22. Consultoría científica: Monitoreo Limnológico e hidrobiológico embalse Amaní-Río La Miel y afluentes principales en el sector aguas abajo de la presa de la Central Hidroeléctrica Miel I - PMA 2006  Año de inicio: 2006, Mes de inicio: 1, Año de fin: 2007, Mes de fin: 1  Idioma: Español, Ciudad: , Disponibilidad: Restringido, Duración: 12, Número del contrato: 1, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 24. Consultoría científica: Programa de monitoreo limnológico embalses Punchiná y San Lorenzo, Centrales Hidroeléctricas San Carlos y Jaguas PMA 2007  Año de inicio: 2007, Mes de inicio: 2, Año de fin: 0, Mes de fin: 1  Idioma: Español, Ciudad: , Disponibilidad: Restringido, Duración: 11, Número del contrato: , Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 32. Consultoría científica: Monitoreo Limnológico e hidrobiológico embalse Amaní-Río La Miel y afluentes principales en el sector aguas abajo de la presa de la Central Hidroeléctrica Miel I - 2012  Año de inicio: 2010, Mes de inicio: 1, Año de fin: 2012, Mes de fin: 1  Idioma: Español, Ciudad: RIONEGRO, Disponibilidad: Restringido, Duración: 24, Número del contrato: 46-3346, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 46. Consultoría científica: Monitoreo de ictiofauna del río la miel y afluentes principales en el sector aguas abajo de la presa de la central hidroeléctrica miel I  Año de inicio: 2010, Mes de inicio: 1, Año de fin: 0, Mes de fin: 1  Idioma: Español, Ciudad: NORCASIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 46/3346, Institución en la cual prestó el servicio: UNIVERSIDAD CATOLICA DE ORIENTE 
- 47. Consultoría científica: Monitoreo de ictiofauna del río la miel y afluentes principales en el sector aguas abajo de la presa de la central hidroeléctrica miel I-2008  Año de inicio: 2008, Mes de inicio: 1, Año de fin: 0, Mes de fin: 1  Idioma: Español, Ciudad: NORCASIA, Disponibilidad: Restringido, Duración: 0, Número del contrato: 46/2628, Institución en la cual prestó el servicio: UNIVERSIDAD CATOLICA DE ORIENTE</t>
   </si>
 </sst>
 </file>
